--- a/LN_test_case_data.xlsx
+++ b/LN_test_case_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A324B69-D629-43F9-9260-F3D6A9764F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F33B87-577F-4E68-90E9-ADF918EEBF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F356A723-82B2-4739-9701-53F1B6AA3857}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F356A723-82B2-4739-9701-53F1B6AA3857}"/>
   </bookViews>
   <sheets>
-    <sheet name="ele_data" sheetId="1" r:id="rId1"/>
-    <sheet name="gas_data" sheetId="2" r:id="rId2"/>
-    <sheet name="heat_data" sheetId="3" r:id="rId3"/>
+    <sheet name="Shematics" sheetId="4" r:id="rId1"/>
+    <sheet name="ele_data" sheetId="1" r:id="rId2"/>
+    <sheet name="gas_data" sheetId="2" r:id="rId3"/>
+    <sheet name="heat_data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -247,6 +248,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32586</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>26147</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64DDCD4-BEB5-49CA-BBCF-2B69E63BE1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3445711" y="737470"/>
+          <a:ext cx="34124811" cy="7406406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,6 +595,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BAD02-B747-4966-BC96-423E778A66F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D18F9BA-DD63-4504-8D05-35B0E5D8B9D4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -1321,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F569CCC-1457-479A-8179-95CC64B2138D}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -1739,11 +1806,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153B4B06-BCCF-49F0-95A6-B3F8700FA291}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
